--- a/examples/Nodle import/bigger_model.xlsx
+++ b/examples/Nodle import/bigger_model.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\A100000\A104037\3 - Docs\3.1 Nodle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rihy\DynSys\examples\Nodle import\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F223D6-9E6F-42A3-92D2-23282C36D0E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="405" windowWidth="10860" windowHeight="6150" firstSheet="14" activeTab="31"/>
+    <workbookView xWindow="840" yWindow="405" windowWidth="10860" windowHeight="6150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="56" r:id="rId1"/>
@@ -85,17 +86,24 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">TTL!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="20">WLO!$1:$5</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Richard Hollamby</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0">
+    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1428,7 +1436,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -1922,6 +1930,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1952,8 +1962,6 @@
     <xf numFmtId="2" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1988,7 +1996,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2032,7 +2046,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2070,7 +2090,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2108,7 +2134,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2146,7 +2178,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2184,7 +2222,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2222,7 +2266,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2260,7 +2310,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2303,7 +2359,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2341,7 +2403,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2384,7 +2452,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2422,7 +2496,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2638,6 +2718,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2673,6 +2770,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2848,14 +2962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3533,7 +3647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3584,10 +3698,10 @@
       <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="16" t="s">
         <v>83</v>
       </c>
@@ -3631,7 +3745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet11">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3694,10 +3808,10 @@
       <c r="C4" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="108" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="107"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="16" t="s">
         <v>103</v>
       </c>
@@ -3748,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet12">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3814,10 +3928,10 @@
       <c r="D4" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="107"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="16" t="s">
         <v>110</v>
       </c>
@@ -3865,7 +3979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet13">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -3942,10 +4056,10 @@
       <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="108" t="s">
         <v>116</v>
       </c>
-      <c r="H4" s="107"/>
+      <c r="H4" s="109"/>
       <c r="I4" s="25"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
@@ -3989,7 +4103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet14">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4105,7 +4219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet15">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4114,7 +4228,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4189,7 +4303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet16">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4267,16 +4381,16 @@
       <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="106" t="s">
+      <c r="G4" s="110"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="107"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
@@ -4328,7 +4442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr codeName="Sheet17">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -4339,7 +4453,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J47" sqref="J47"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4406,16 +4520,16 @@
       <c r="E4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="106" t="s">
+      <c r="G4" s="110"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="107"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
@@ -5102,7 +5216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr codeName="Sheet18">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5186,16 +5300,16 @@
       <c r="F4" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="108" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="106" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="108" t="s">
         <v>153</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="107"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="109"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
@@ -5250,7 +5364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr codeName="Sheet19">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5327,7 +5441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5422,7 +5536,7 @@
       <c r="C9" s="1"/>
       <c r="F9" s="49">
         <f ca="1">TODAY()</f>
-        <v>43031</v>
+        <v>43501</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -5470,7 +5584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr codeName="Sheet20">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5557,16 +5671,16 @@
       <c r="F4" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="108" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="106" t="s">
+      <c r="H4" s="110"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="108" t="s">
         <v>164</v>
       </c>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
       <c r="M4" s="15" t="s">
         <v>162</v>
       </c>
@@ -5627,7 +5741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr codeName="Sheet21">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5709,11 +5823,11 @@
       <c r="E4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="108" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
       <c r="I4" s="15" t="s">
         <v>231</v>
       </c>
@@ -5779,7 +5893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr codeName="Sheet22">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5874,7 +5988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr codeName="Sheet23">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -5885,7 +5999,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5953,26 +6067,26 @@
       <c r="C4" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="108" t="s">
         <v>183</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="106" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="G4" s="107"/>
-      <c r="H4" s="106" t="s">
+      <c r="G4" s="109"/>
+      <c r="H4" s="108" t="s">
         <v>181</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="106" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="106" t="s">
+      <c r="K4" s="109"/>
+      <c r="L4" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="M4" s="107"/>
+      <c r="M4" s="109"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
@@ -6053,7 +6167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr codeName="Sheet24">
     <tabColor indexed="35"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6163,20 +6277,20 @@
       <c r="H4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="107"/>
-      <c r="K4" s="106" t="s">
+      <c r="J4" s="109"/>
+      <c r="K4" s="108" t="s">
         <v>193</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="107"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="109"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
@@ -6249,7 +6363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr codeName="Sheet25">
     <tabColor indexed="47"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6289,8 +6403,8 @@
       <c r="C5" s="31" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="112"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="29"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -6298,8 +6412,8 @@
       <c r="C6" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="112"/>
       <c r="F6" s="29"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -6307,8 +6421,8 @@
       <c r="C7" s="31" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="109"/>
-      <c r="E7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="112"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="54"/>
@@ -6461,7 +6575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr codeName="Sheet26">
     <tabColor indexed="47"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6570,7 +6684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr codeName="Sheet27">
     <tabColor indexed="47"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6638,7 +6752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr codeName="Sheet28">
     <tabColor indexed="47"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6698,16 +6812,16 @@
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="115" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="113" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="115" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
@@ -6750,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr codeName="Sheet29">
     <tabColor indexed="47"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6822,20 +6936,20 @@
       <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="113" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="113" t="s">
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="115" t="s">
         <v>214</v>
       </c>
-      <c r="K4" s="115"/>
+      <c r="K4" s="117"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
@@ -6888,7 +7002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -6996,7 +7110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr codeName="Sheet30">
     <tabColor indexed="47"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7063,16 +7177,16 @@
       <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="113" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="115"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
@@ -7118,7 +7232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr codeName="Sheet31">
     <tabColor indexed="47"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7178,16 +7292,16 @@
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="115" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="113" t="s">
+      <c r="D4" s="116"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="115" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="115"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
@@ -7230,14 +7344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -7247,7 +7361,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B1" s="116"/>
+      <c r="B1" s="106"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="99" t="s">
@@ -7373,7 +7487,7 @@
       <c r="F16" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="G16" s="117">
+      <c r="G16" s="107">
         <f>D16/9.81</f>
         <v>17.163899999999998</v>
       </c>
@@ -7395,7 +7509,7 @@
       <c r="F17" s="96" t="s">
         <v>336</v>
       </c>
-      <c r="G17" s="117">
+      <c r="G17" s="107">
         <f>D17/9.81</f>
         <v>2.4683493479254999</v>
       </c>
@@ -7495,7 +7609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7503,7 +7617,7 @@
   <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7665,7 +7779,7 @@
         <v>58</v>
       </c>
       <c r="D26" s="67">
-        <v>200</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
@@ -7720,7 +7834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7729,7 +7843,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7773,10 +7887,10 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="107"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="45" t="s">
         <v>22</v>
       </c>
@@ -7871,7 +7985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -7882,7 +7996,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7951,25 +8065,25 @@
       <c r="D4" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="107"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="106" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="106" t="s">
+      <c r="K4" s="109"/>
+      <c r="L4" s="108" t="s">
         <v>78</v>
       </c>
-      <c r="M4" s="107"/>
+      <c r="M4" s="109"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
@@ -14222,7 +14336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -14279,11 +14393,11 @@
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="107"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="109"/>
       <c r="F4" s="15" t="s">
         <v>83</v>
       </c>
@@ -34567,7 +34681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -34639,25 +34753,25 @@
       <c r="B4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="108" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="106" t="s">
+      <c r="D4" s="109"/>
+      <c r="E4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="107"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="106" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="K4" s="107"/>
+      <c r="K4" s="109"/>
       <c r="L4" s="15" t="s">
         <v>89</v>
       </c>
@@ -56283,7 +56397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9">
     <tabColor indexed="27"/>
     <pageSetUpPr fitToPage="1"/>
@@ -56294,7 +56408,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -56365,11 +56479,11 @@
       <c r="F4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="108" t="s">
         <v>94</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="107"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="109"/>
       <c r="J4" s="15" t="s">
         <v>89</v>
       </c>
